--- a/posts/Transparency-Shiny/data/CPI2022_GlobalResultsTrends.xlsx
+++ b/posts/Transparency-Shiny/data/CPI2022_GlobalResultsTrends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkukutschka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwalker/Nextcloud/Sandbox/robertwwalker.github.io/posts/Transparency-Shiny/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914E3228-4006-4B45-972A-6420F1D365FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51463F18-A2E2-6D4B-81ED-72A1F227977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="600" windowWidth="23180" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="760" windowWidth="23180" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI 2022 (final)" sheetId="7" r:id="rId1"/>
@@ -1719,397 +1719,7 @@
     <cellStyle name="Normal 3 2" xfId="7" xr:uid="{8E482265-B511-344E-B9DF-9AF4AC37AFBD}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{67C56D30-D8A7-8446-98CA-A6AE9BA4C3AB}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -38703,202 +38313,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C3">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF3">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK3">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL3">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM3">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN3">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO3">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP3">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="A3:AP3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -41637,6 +41052,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E2083BC53584541BAA6A4357270D8E8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35838ff9875acb7b584ed2623a08757b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9f6a8fc-79f3-498a-92fc-ded8b37dbbcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1142c43ff06d197386d67589b98d7f28" ns2:_="">
     <xsd:import namespace="c9f6a8fc-79f3-498a-92fc-ded8b37dbbcc"/>
@@ -41768,22 +41198,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F9B26F-C52B-4546-AAB3-2BD3CCE827B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3FD084C-1DF1-406C-B7AB-5B65D825AF2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E52E7E66-38E0-4D89-BF6F-3C944F7C19A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41799,21 +41231,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3FD084C-1DF1-406C-B7AB-5B65D825AF2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80F9B26F-C52B-4546-AAB3-2BD3CCE827B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>